--- a/traditional_product.xlsx
+++ b/traditional_product.xlsx
@@ -1,52 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="18315" windowHeight="18405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="陶磁器" sheetId="1" r:id="rId1"/>
     <sheet name="漆器" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>陶磁器</t>
     <rPh sb="0" eb="3">
       <t>トウジキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>http://www.evotown.com/japan/tojiki/index.html</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>産地</t>
     <rPh sb="0" eb="2">
       <t>サンチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会津本郷焼</t>
     <rPh sb="0" eb="5">
       <t>アイヅホンゴウヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>福島</t>
     <rPh sb="0" eb="2">
       <t>フクシマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>大堀相馬焼</t>
@@ -56,238 +61,238 @@
     <rPh sb="2" eb="5">
       <t>ソウマヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>赤津焼</t>
     <rPh sb="0" eb="3">
       <t>アカヅヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>愛知</t>
     <rPh sb="0" eb="2">
       <t>アイチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>笠間焼</t>
     <rPh sb="0" eb="3">
       <t>カサマヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>茨木</t>
     <rPh sb="0" eb="2">
       <t>イバラギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>益子焼</t>
     <rPh sb="0" eb="3">
       <t>マシコヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>栃木</t>
     <rPh sb="0" eb="2">
       <t>トチギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>越前焼</t>
     <rPh sb="0" eb="3">
       <t>エチゼンヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>福井</t>
     <rPh sb="0" eb="2">
       <t>フクイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>九谷焼</t>
     <rPh sb="0" eb="3">
       <t>クタニヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>石川</t>
     <rPh sb="0" eb="2">
       <t>イシカワ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>伊賀焼</t>
     <rPh sb="0" eb="3">
       <t>イガヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>三重</t>
     <rPh sb="0" eb="2">
       <t>ミエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>瀬戸染付焼</t>
     <rPh sb="0" eb="5">
       <t>セトソメツケヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>常滑焼</t>
     <rPh sb="0" eb="3">
       <t>トコナメヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>美濃焼</t>
     <rPh sb="0" eb="3">
       <t>ミノヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>岐阜</t>
     <rPh sb="0" eb="2">
       <t>ギフ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>四日市萬古焼</t>
     <rPh sb="0" eb="6">
       <t>ヨッカイチバンコヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>出石焼</t>
     <rPh sb="0" eb="3">
       <t>イズシヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>兵庫</t>
     <rPh sb="0" eb="2">
       <t>ヒョウゴ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>京焼</t>
     <rPh sb="0" eb="2">
       <t>キョウヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>京都</t>
     <rPh sb="0" eb="2">
       <t>キョウト</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>清水焼</t>
     <rPh sb="0" eb="3">
       <t>キヨミズヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>信楽焼</t>
     <rPh sb="0" eb="3">
       <t>シガラヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>滋賀</t>
     <rPh sb="0" eb="2">
       <t>シガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>丹波立杭焼</t>
     <rPh sb="0" eb="5">
       <t>タンバタチクイヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>石見焼</t>
     <rPh sb="0" eb="3">
       <t>イワミヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>島根</t>
     <rPh sb="0" eb="2">
       <t>シマネ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備前焼</t>
     <rPh sb="0" eb="3">
       <t>ビゼンヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>岡山</t>
     <rPh sb="0" eb="2">
       <t>オカヤマ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>砥部焼</t>
     <rPh sb="0" eb="3">
       <t>トベヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>愛媛</t>
     <rPh sb="0" eb="2">
       <t>エヒメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上野焼</t>
     <rPh sb="0" eb="3">
       <t>アガノヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>福岡</t>
     <rPh sb="0" eb="2">
       <t>フクオカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>有田焼</t>
@@ -297,88 +302,88 @@
     <rPh sb="2" eb="3">
       <t>ヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>佐賀</t>
     <rPh sb="0" eb="2">
       <t>サガ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>伊万里焼</t>
     <rPh sb="0" eb="4">
       <t>イマリヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>唐津焼</t>
     <rPh sb="0" eb="3">
       <t>カラツヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>小石原焼</t>
     <rPh sb="0" eb="4">
       <t>コイシワラヤ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>壺屋焼</t>
     <rPh sb="0" eb="3">
       <t>ツボヤヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>沖縄</t>
     <rPh sb="0" eb="2">
       <t>オキナワ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>波佐見焼</t>
     <rPh sb="0" eb="4">
       <t>ハサミヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>長崎</t>
     <rPh sb="0" eb="2">
       <t>ナガサキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>三川内焼</t>
     <rPh sb="0" eb="4">
       <t>ミカワチヤキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>漆器</t>
     <rPh sb="0" eb="2">
       <t>シッキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>http://www.evotown.com/japan/urusi/index.html</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>会津塗</t>
     <rPh sb="0" eb="3">
       <t>アイヅヌリ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>川連漆器</t>
@@ -490,13 +495,153 @@
   </si>
   <si>
     <t>沖縄県</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aiduhongo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oborisoma</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>akadu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kasama</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>masiko</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>echizen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kutani</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iga</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>setosometuke</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tokoname</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mino</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yokkaichibanko</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>izushi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kyo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kiyomizu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shigara</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tanbatachikui</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iwami</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bizen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tobe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>agano</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arita</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>imari</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>karatuyaki</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>koishiwara</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tuboya</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hasami</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mikawachi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>search_word</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>land_of_origin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Keyword</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>touki</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image_url</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +649,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -552,8 +703,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +723,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,34 +748,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="18">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,267 +1147,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>D6&amp;".jpg"</f>
+        <v>aiduhongo.jpg</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D6&amp;"', name: '"&amp;B6&amp;"', image_url: '"&amp;F6&amp;"' },"</f>
+        <v>{ tag_type: 'touki', tag: 'aiduhongo', name: '会津本郷焼', image_url: 'aiduhongo.jpg' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" ref="F7:F33" si="0">D7&amp;".jpg"</f>
+        <v>oborisoma.jpg</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ref="G7:G33" si="1">"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D7&amp;"', name: '"&amp;B7&amp;"', image_url: '"&amp;F7&amp;"' },"</f>
+        <v>{ tag_type: 'touki', tag: 'oborisoma', name: '大堀相馬焼', image_url: 'oborisoma.jpg' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>akadu.jpg</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'akadu', name: '赤津焼', image_url: 'akadu.jpg' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kasama.jpg</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'kasama', name: '笠間焼', image_url: 'kasama.jpg' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>masiko.jpg</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'masiko', name: '益子焼', image_url: 'masiko.jpg' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>echizen.jpg</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'echizen', name: '越前焼', image_url: 'echizen.jpg' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kutani.jpg</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'kutani', name: '九谷焼', image_url: 'kutani.jpg' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>iga.jpg</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'iga', name: '伊賀焼', image_url: 'iga.jpg' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>setosometuke.jpg</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'setosometuke', name: '瀬戸染付焼', image_url: 'setosometuke.jpg' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tokoname.jpg</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'tokoname', name: '常滑焼', image_url: 'tokoname.jpg' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mino.jpg</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'mino', name: '美濃焼', image_url: 'mino.jpg' },</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>yokkaichibanko.jpg</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'yokkaichibanko', name: '四日市萬古焼', image_url: 'yokkaichibanko.jpg' },</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>izushi.jpg</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'izushi', name: '出石焼', image_url: 'izushi.jpg' },</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kyo.jpg</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'kyo', name: '京焼', image_url: 'kyo.jpg' },</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>kiyomizu.jpg</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'kiyomizu', name: '清水焼', image_url: 'kiyomizu.jpg' },</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>shigara.jpg</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'shigara', name: '信楽焼', image_url: 'shigara.jpg' },</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tanbatachikui.jpg</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'tanbatachikui', name: '丹波立杭焼', image_url: 'tanbatachikui.jpg' },</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>iwami.jpg</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'iwami', name: '石見焼', image_url: 'iwami.jpg' },</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>bizen.jpg</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'bizen', name: '備前焼', image_url: 'bizen.jpg' },</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tobe.jpg</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'tobe', name: '砥部焼', image_url: 'tobe.jpg' },</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>agano.jpg</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'agano', name: '上野焼', image_url: 'agano.jpg' },</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>arita.jpg</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'arita', name: '有田焼', image_url: 'arita.jpg' },</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>imari.jpg</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'imari', name: '伊万里焼', image_url: 'imari.jpg' },</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>karatuyaki.jpg</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'karatuyaki', name: '唐津焼', image_url: 'karatuyaki.jpg' },</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>koishiwara.jpg</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'koishiwara', name: '小石原焼', image_url: 'koishiwara.jpg' },</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>tuboya.jpg</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'tuboya', name: '壺屋焼', image_url: 'tuboya.jpg' },</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>hasami.jpg</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'hasami', name: '波佐見焼', image_url: 'hasami.jpg' },</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>mikawachi.jpg</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>{ tag_type: 'touki', tag: 'mikawachi', name: '三川内焼', image_url: 'mikawachi.jpg' },</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1170,29 +1837,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="22">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1200,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1208,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1216,7 +1883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1232,7 +1899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1240,7 +1907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1264,7 +1931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1272,7 +1939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1280,7 +1947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1288,7 +1955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1296,7 +1963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
@@ -1304,7 +1971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1312,7 +1979,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1320,7 +1987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
@@ -1328,7 +1995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
@@ -1336,7 +2003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
@@ -1344,7 +2011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
         <v>81</v>
       </c>
@@ -1352,7 +2019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -1360,7 +2027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
@@ -1368,7 +2035,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1377,11 +2044,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/traditional_product.xlsx
+++ b/traditional_product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>陶磁器</t>
     <rPh sb="0" eb="3">
@@ -71,13 +71,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>愛知</t>
-    <rPh sb="0" eb="2">
-      <t>アイチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>笠間焼</t>
     <rPh sb="0" eb="3">
       <t>カサマヤ</t>
@@ -85,13 +78,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>茨木</t>
-    <rPh sb="0" eb="2">
-      <t>イバラギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>益子焼</t>
     <rPh sb="0" eb="3">
       <t>マシコヤキ</t>
@@ -99,13 +85,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>栃木</t>
-    <rPh sb="0" eb="2">
-      <t>トチギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>越前焼</t>
     <rPh sb="0" eb="3">
       <t>エチゼンヤ</t>
@@ -113,13 +92,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>福井</t>
-    <rPh sb="0" eb="2">
-      <t>フクイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>九谷焼</t>
     <rPh sb="0" eb="3">
       <t>クタニヤキ</t>
@@ -127,13 +99,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>石川</t>
-    <rPh sb="0" eb="2">
-      <t>イシカワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>伊賀焼</t>
     <rPh sb="0" eb="3">
       <t>イガヤ</t>
@@ -141,13 +106,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>三重</t>
-    <rPh sb="0" eb="2">
-      <t>ミエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>瀬戸染付焼</t>
     <rPh sb="0" eb="5">
       <t>セトソメツケヤキ</t>
@@ -169,13 +127,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>岐阜</t>
-    <rPh sb="0" eb="2">
-      <t>ギフ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>四日市萬古焼</t>
     <rPh sb="0" eb="6">
       <t>ヨッカイチバンコヤキ</t>
@@ -190,13 +141,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>兵庫</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウゴ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>京焼</t>
     <rPh sb="0" eb="2">
       <t>キョウヤキ</t>
@@ -204,13 +148,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>京都</t>
-    <rPh sb="0" eb="2">
-      <t>キョウト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>清水焼</t>
     <rPh sb="0" eb="3">
       <t>キヨミズヤキ</t>
@@ -225,13 +162,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>滋賀</t>
-    <rPh sb="0" eb="2">
-      <t>シガ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>丹波立杭焼</t>
     <rPh sb="0" eb="5">
       <t>タンバタチクイヤキ</t>
@@ -246,13 +176,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>島根</t>
-    <rPh sb="0" eb="2">
-      <t>シマネ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>備前焼</t>
     <rPh sb="0" eb="3">
       <t>ビゼンヤキ</t>
@@ -260,13 +183,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>岡山</t>
-    <rPh sb="0" eb="2">
-      <t>オカヤマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>砥部焼</t>
     <rPh sb="0" eb="3">
       <t>トベヤキ</t>
@@ -274,13 +190,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>愛媛</t>
-    <rPh sb="0" eb="2">
-      <t>エヒメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>上野焼</t>
     <rPh sb="0" eb="3">
       <t>アガノヤキ</t>
@@ -288,13 +197,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>福岡</t>
-    <rPh sb="0" eb="2">
-      <t>フクオカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>有田焼</t>
     <rPh sb="0" eb="2">
       <t>アリタ</t>
@@ -305,13 +207,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>佐賀</t>
-    <rPh sb="0" eb="2">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>伊万里焼</t>
     <rPh sb="0" eb="4">
       <t>イマリヤキ</t>
@@ -340,13 +235,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>沖縄</t>
-    <rPh sb="0" eb="2">
-      <t>オキナワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>波佐見焼</t>
     <rPh sb="0" eb="4">
       <t>ハサミヤキ</t>
@@ -354,13 +242,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>長崎</t>
-    <rPh sb="0" eb="2">
-      <t>ナガサキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>三川内焼</t>
     <rPh sb="0" eb="4">
       <t>ミカワチヤキ</t>
@@ -629,11 +510,407 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>touki</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>image_url</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SearchCondition</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>traditional</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Traditional</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>福島</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>フクシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>愛知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>アイチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>茨木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イバラギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>栃木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トチギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>福井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>フクイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>石川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>三重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ミエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>岐阜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ギフ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>兵庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ヒョウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>京都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>府</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>滋賀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>島根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シマネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>岡山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>オカヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>愛媛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>エヒメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>福岡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>佐賀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>沖縄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>オキナワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>長崎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+      </rPr>
+      <t>県</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ナガサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -748,11 +1025,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,7 +1134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -849,6 +1153,15 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1147,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1161,56 +1474,61 @@
     <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22">
+    <row r="1" spans="1:9" ht="22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="B4" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+      <c r="C6" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -1221,18 +1539,26 @@
       </c>
       <c r="G6" s="1" t="str">
         <f>"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D6&amp;"', name: '"&amp;B6&amp;"', image_url: '"&amp;F6&amp;"' },"</f>
-        <v>{ tag_type: 'touki', tag: 'aiduhongo', name: '会津本郷焼', image_url: 'aiduhongo.jpg' },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'aiduhongo', name: '会津本郷焼', image_url: 'aiduhongo.jpg' },</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>"{ search_word: '"&amp;E6&amp;"', tag: '"&amp;D6&amp;"' },"</f>
+        <v>{ search_word: '会津本郷焼', tag: 'aiduhongo' },</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>"{ land_of_origin: '"&amp;C6&amp;"', tag: '"&amp;D6&amp;"' },"</f>
+        <v>{ land_of_origin: '福島県', tag: 'aiduhongo' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -1243,18 +1569,26 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" ref="G7:G33" si="1">"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D7&amp;"', name: '"&amp;B7&amp;"', image_url: '"&amp;F7&amp;"' },"</f>
-        <v>{ tag_type: 'touki', tag: 'oborisoma', name: '大堀相馬焼', image_url: 'oborisoma.jpg' },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'oborisoma', name: '大堀相馬焼', image_url: 'oborisoma.jpg' },</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ref="H7:H33" si="2">"{ search_word: '"&amp;E7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
+        <v>{ search_word: '大堀相馬焼', tag: 'oborisoma' },</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>"{ land_of_origin: '"&amp;C7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
+        <v>{ land_of_origin: '福島県', tag: 'oborisoma' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+      <c r="C8" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1265,21 +1599,29 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'akadu', name: '赤津焼', image_url: 'akadu.jpg' },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'akadu', name: '赤津焼', image_url: 'akadu.jpg' },</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '赤津焼', tag: 'akadu' },</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" ref="I8:I33" si="3">"{ land_of_origin: '"&amp;C8&amp;"', tag: '"&amp;D8&amp;"' },"</f>
+        <v>{ land_of_origin: '愛知県', tag: 'akadu' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1287,21 +1629,29 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'kasama', name: '笠間焼', image_url: 'kasama.jpg' },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'kasama', name: '笠間焼', image_url: 'kasama.jpg' },</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '笠間焼', tag: 'kasama' },</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '茨木県', tag: 'kasama' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1309,21 +1659,29 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'masiko', name: '益子焼', image_url: 'masiko.jpg' },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'masiko', name: '益子焼', image_url: 'masiko.jpg' },</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '益子焼', tag: 'masiko' },</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '栃木県', tag: 'masiko' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1331,21 +1689,29 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'echizen', name: '越前焼', image_url: 'echizen.jpg' },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'echizen', name: '越前焼', image_url: 'echizen.jpg' },</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '越前焼', tag: 'echizen' },</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '福井県', tag: 'echizen' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1353,21 +1719,29 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'kutani', name: '九谷焼', image_url: 'kutani.jpg' },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'kutani', name: '九谷焼', image_url: 'kutani.jpg' },</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '九谷焼', tag: 'kutani' },</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '石川県', tag: 'kutani' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1375,21 +1749,29 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'iga', name: '伊賀焼', image_url: 'iga.jpg' },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'iga', name: '伊賀焼', image_url: 'iga.jpg' },</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '伊賀焼', tag: 'iga' },</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '三重県', tag: 'iga' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1397,21 +1779,29 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'setosometuke', name: '瀬戸染付焼', image_url: 'setosometuke.jpg' },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'setosometuke', name: '瀬戸染付焼', image_url: 'setosometuke.jpg' },</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '瀬戸染付焼', tag: 'setosometuke' },</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '愛知県', tag: 'setosometuke' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1419,21 +1809,29 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'tokoname', name: '常滑焼', image_url: 'tokoname.jpg' },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>{ tag_type: 'traditional', tag: 'tokoname', name: '常滑焼', image_url: 'tokoname.jpg' },</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '常滑焼', tag: 'tokoname' },</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '愛知県', tag: 'tokoname' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1441,21 +1839,29 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'mino', name: '美濃焼', image_url: 'mino.jpg' },</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'mino', name: '美濃焼', image_url: 'mino.jpg' },</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '美濃焼', tag: 'mino' },</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '岐阜県', tag: 'mino' },</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1463,21 +1869,29 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'yokkaichibanko', name: '四日市萬古焼', image_url: 'yokkaichibanko.jpg' },</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'yokkaichibanko', name: '四日市萬古焼', image_url: 'yokkaichibanko.jpg' },</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '四日市萬古焼', tag: 'yokkaichibanko' },</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '三重県', tag: 'yokkaichibanko' },</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1485,21 +1899,29 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'izushi', name: '出石焼', image_url: 'izushi.jpg' },</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'izushi', name: '出石焼', image_url: 'izushi.jpg' },</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '出石焼', tag: 'izushi' },</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '兵庫県', tag: 'izushi' },</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1507,21 +1929,29 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'kyo', name: '京焼', image_url: 'kyo.jpg' },</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'kyo', name: '京焼', image_url: 'kyo.jpg' },</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '京焼', tag: 'kyo' },</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '京都府', tag: 'kyo' },</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1529,21 +1959,29 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'kiyomizu', name: '清水焼', image_url: 'kiyomizu.jpg' },</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'kiyomizu', name: '清水焼', image_url: 'kiyomizu.jpg' },</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '清水焼', tag: 'kiyomizu' },</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '京都府', tag: 'kiyomizu' },</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1551,21 +1989,29 @@
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'shigara', name: '信楽焼', image_url: 'shigara.jpg' },</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'shigara', name: '信楽焼', image_url: 'shigara.jpg' },</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '信楽焼', tag: 'shigara' },</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '滋賀県', tag: 'shigara' },</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1573,21 +2019,29 @@
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'tanbatachikui', name: '丹波立杭焼', image_url: 'tanbatachikui.jpg' },</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'tanbatachikui', name: '丹波立杭焼', image_url: 'tanbatachikui.jpg' },</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '丹波立杭焼', tag: 'tanbatachikui' },</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '兵庫県', tag: 'tanbatachikui' },</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1595,21 +2049,29 @@
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'iwami', name: '石見焼', image_url: 'iwami.jpg' },</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'iwami', name: '石見焼', image_url: 'iwami.jpg' },</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '石見焼', tag: 'iwami' },</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '島根県', tag: 'iwami' },</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1617,21 +2079,29 @@
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'bizen', name: '備前焼', image_url: 'bizen.jpg' },</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'bizen', name: '備前焼', image_url: 'bizen.jpg' },</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '備前焼', tag: 'bizen' },</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '岡山県', tag: 'bizen' },</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1639,21 +2109,29 @@
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'tobe', name: '砥部焼', image_url: 'tobe.jpg' },</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'tobe', name: '砥部焼', image_url: 'tobe.jpg' },</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '砥部焼', tag: 'tobe' },</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '愛媛県', tag: 'tobe' },</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1661,21 +2139,29 @@
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'agano', name: '上野焼', image_url: 'agano.jpg' },</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'agano', name: '上野焼', image_url: 'agano.jpg' },</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '上野焼', tag: 'agano' },</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '福岡県', tag: 'agano' },</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1683,21 +2169,29 @@
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'arita', name: '有田焼', image_url: 'arita.jpg' },</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'arita', name: '有田焼', image_url: 'arita.jpg' },</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '有田焼', tag: 'arita' },</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '佐賀県', tag: 'arita' },</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1705,21 +2199,29 @@
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'imari', name: '伊万里焼', image_url: 'imari.jpg' },</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'imari', name: '伊万里焼', image_url: 'imari.jpg' },</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '伊万里焼', tag: 'imari' },</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '佐賀県', tag: 'imari' },</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1727,21 +2229,29 @@
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'karatuyaki', name: '唐津焼', image_url: 'karatuyaki.jpg' },</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'karatuyaki', name: '唐津焼', image_url: 'karatuyaki.jpg' },</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '唐津焼', tag: 'karatuyaki' },</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '佐賀県', tag: 'karatuyaki' },</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1749,21 +2259,29 @@
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'koishiwara', name: '小石原焼', image_url: 'koishiwara.jpg' },</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'koishiwara', name: '小石原焼', image_url: 'koishiwara.jpg' },</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '小石原焼', tag: 'koishiwara' },</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '福岡県', tag: 'koishiwara' },</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1771,21 +2289,29 @@
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'tuboya', name: '壺屋焼', image_url: 'tuboya.jpg' },</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'tuboya', name: '壺屋焼', image_url: 'tuboya.jpg' },</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '壺屋焼', tag: 'tuboya' },</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '沖縄県', tag: 'tuboya' },</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1793,21 +2319,29 @@
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'hasami', name: '波佐見焼', image_url: 'hasami.jpg' },</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
+        <v>{ tag_type: 'traditional', tag: 'hasami', name: '波佐見焼', image_url: 'hasami.jpg' },</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '波佐見焼', tag: 'hasami' },</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '長崎県', tag: 'hasami' },</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1815,7 +2349,15 @@
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{ tag_type: 'touki', tag: 'mikawachi', name: '三川内焼', image_url: 'mikawachi.jpg' },</v>
+        <v>{ tag_type: 'traditional', tag: 'mikawachi', name: '三川内焼', image_url: 'mikawachi.jpg' },</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>{ search_word: '三川内焼', tag: 'mikawachi' },</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{ land_of_origin: '長崎県', tag: 'mikawachi' },</v>
       </c>
     </row>
   </sheetData>
@@ -1851,17 +2393,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1869,7 +2411,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1877,170 +2419,170 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/traditional_product.xlsx
+++ b/traditional_product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="陶磁器" sheetId="1" r:id="rId1"/>
@@ -20,38 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
   <si>
     <t>陶磁器</t>
     <rPh sb="0" eb="3">
       <t>トウジキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.evotown.com/japan/tojiki/index.html</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>産地</t>
     <rPh sb="0" eb="2">
       <t>サンチ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>会津本郷焼</t>
     <rPh sb="0" eb="5">
       <t>アイヅホンゴウヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>福島</t>
     <rPh sb="0" eb="2">
       <t>フクシマ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>大堀相馬焼</t>
@@ -61,140 +61,140 @@
     <rPh sb="2" eb="5">
       <t>ソウマヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>赤津焼</t>
     <rPh sb="0" eb="3">
       <t>アカヅヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>笠間焼</t>
     <rPh sb="0" eb="3">
       <t>カサマヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>益子焼</t>
     <rPh sb="0" eb="3">
       <t>マシコヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>越前焼</t>
     <rPh sb="0" eb="3">
       <t>エチゼンヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>九谷焼</t>
     <rPh sb="0" eb="3">
       <t>クタニヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>伊賀焼</t>
     <rPh sb="0" eb="3">
       <t>イガヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>瀬戸染付焼</t>
     <rPh sb="0" eb="5">
       <t>セトソメツケヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>常滑焼</t>
     <rPh sb="0" eb="3">
       <t>トコナメヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>美濃焼</t>
     <rPh sb="0" eb="3">
       <t>ミノヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>四日市萬古焼</t>
     <rPh sb="0" eb="6">
       <t>ヨッカイチバンコヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>出石焼</t>
     <rPh sb="0" eb="3">
       <t>イズシヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>京焼</t>
     <rPh sb="0" eb="2">
       <t>キョウヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>清水焼</t>
     <rPh sb="0" eb="3">
       <t>キヨミズヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>信楽焼</t>
     <rPh sb="0" eb="3">
       <t>シガラヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>丹波立杭焼</t>
     <rPh sb="0" eb="5">
       <t>タンバタチクイヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>石見焼</t>
     <rPh sb="0" eb="3">
       <t>イワミヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>備前焼</t>
     <rPh sb="0" eb="3">
       <t>ビゼンヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>砥部焼</t>
     <rPh sb="0" eb="3">
       <t>トベヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>上野焼</t>
     <rPh sb="0" eb="3">
       <t>アガノヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>有田焼</t>
@@ -204,67 +204,67 @@
     <rPh sb="2" eb="3">
       <t>ヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>伊万里焼</t>
     <rPh sb="0" eb="4">
       <t>イマリヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>唐津焼</t>
     <rPh sb="0" eb="3">
       <t>カラツヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>小石原焼</t>
     <rPh sb="0" eb="4">
       <t>コイシワラヤ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>壺屋焼</t>
     <rPh sb="0" eb="3">
       <t>ツボヤヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>波佐見焼</t>
     <rPh sb="0" eb="4">
       <t>ハサミヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>三川内焼</t>
     <rPh sb="0" eb="4">
       <t>ミカワチヤキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>漆器</t>
     <rPh sb="0" eb="2">
       <t>シッキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>http://www.evotown.com/japan/urusi/index.html</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>会津塗</t>
     <rPh sb="0" eb="3">
       <t>アイヅヌリ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>川連漆器</t>
@@ -379,151 +379,151 @@
   </si>
   <si>
     <t>tag</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>aiduhongo</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>oborisoma</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>akadu</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>kasama</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>masiko</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>echizen</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>kutani</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>iga</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>setosometuke</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>tokoname</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>mino</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>yokkaichibanko</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>izushi</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>kyo</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>kiyomizu</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>shigara</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>tanbatachikui</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>iwami</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>bizen</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>tobe</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>agano</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>arita</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>imari</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>karatuyaki</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>koishiwara</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>tuboya</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>hasami</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>mikawachi</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>search_word</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>land_of_origin</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Keyword</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>image_url</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SearchCondition</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>traditional</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Traditional</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -544,7 +544,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -565,7 +565,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -586,7 +586,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -607,7 +607,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -628,7 +628,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -649,7 +649,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -670,7 +670,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -691,7 +691,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -712,7 +712,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -733,7 +733,7 @@
     <rPh sb="2" eb="3">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>京都府</t>
@@ -743,7 +743,7 @@
     <rPh sb="2" eb="3">
       <t>フ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -764,7 +764,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -785,7 +785,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -806,7 +806,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -827,7 +827,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -848,7 +848,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -869,7 +869,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -890,7 +890,7 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -911,14 +911,117 @@
     <rPh sb="2" eb="3">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>image source url</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://www.tohoku.meti.go.jp/s_cyusyo/densan-ver3/img/image_aizuhongouyaki.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kfb.co.jp/ana/chihara/WindowsLiveWriter/b33bef04748f_FF90/yunomi.jpg</t>
+  </si>
+  <si>
+    <t>http://material.miyazaki-c.ed.jp/ipa/dentouteki_kougeihin/touziki_touhoku_tyuubu/akazuyaki/x-dak3.jpg</t>
+  </si>
+  <si>
+    <t>http://www.souvenir-project.com/wp-content/uploads/2011/04/20110426_IMGP7710.jpg</t>
+  </si>
+  <si>
+    <t>http://image.mapple.net/ospot/photol/18/01/01/18010114_3252_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.thecovernippon.jp/shop/ku/kutani_main.jpg</t>
+  </si>
+  <si>
+    <t>http://iga-iroiro.jp/matiya/img/img_deco_02.jpg</t>
+  </si>
+  <si>
+    <t>http://zeami.ci.sugiyama-u.ac.jp/~izuka/iizuka2001/seto/kabegami/MVC-027S.JPG</t>
+  </si>
+  <si>
+    <t>http://mijp.shop28.makeshop.jp/shopimages/mijp/0250080000322.jpg</t>
+  </si>
+  <si>
+    <t>http://www.thecovernippon.jp/shop/ec_img/353/104560_3_7_main.jpg</t>
+  </si>
+  <si>
+    <t>http://www5.city.yokkaichi.mie.jp/secure/40203/59_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.city.toyooka.lg.jp/www/contents/1117001086109/images/11174502970001117001086109_image2.JPG</t>
+  </si>
+  <si>
+    <t>http://www.tachikichi.co.jp/spring/20090407/main.jpg</t>
+  </si>
+  <si>
+    <t>http://img.shaddy.jp/shop/49980000/commodity/1007166.jpg</t>
+  </si>
+  <si>
+    <t>http://img.shaddy.jp/shop/49980000/commodity/0200226.jpg</t>
+  </si>
+  <si>
+    <t>http://tourism.sasayama.jp/feature0201-thumb-745x336-143.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pref.shimane.lg.jp/industry/syoko/sangyo/dentou_kougei/kougei/kougei_03.data/iwamiyaki.JPG</t>
+  </si>
+  <si>
+    <t>http://www.sanbonmatsu.co.jp/images/syouhin/bizenyaki_group.jpg</t>
+  </si>
+  <si>
+    <t>http://www.aganoyaki.com/CIMGselect1074.JPG</t>
+  </si>
+  <si>
+    <t>http://shopping.c.yimg.jp/lib/motoki/a-184-1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.art-index.net/art_exhibitions/20091222toguri02.jpg</t>
+  </si>
+  <si>
+    <t>http://www.aiten.co.jp/item_photo/081915401l.jpg</t>
+  </si>
+  <si>
+    <t>http://nachicco.img.jugem.jp/20110715_1372911.jpg</t>
+  </si>
+  <si>
+    <t>http://www.wa-raku.com/shouhin/event/titi/c-5.jpg</t>
+  </si>
+  <si>
+    <t>参考になりそうなショップ</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://www.monsen.jp</t>
+  </si>
+  <si>
+    <t>http://yaplog.jp/cv/komawari/img/375/10130954220_p.jpg</t>
+  </si>
+  <si>
+    <t>http://material.miyazaki-c.ed.jp/ipa/dentouteki_kougeihin/touziki_kyuusyuu/mikawatiyaki/x-dmw2.jpg</t>
+  </si>
+  <si>
+    <t>curl -o</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>http://gigaplus.makeshop.jp/tobeyaki0424/b/soba/b-soba-karakusa-068.jpg</t>
+  </si>
+  <si>
+    <t>http://4koma-family.up.n.seesaa.net/4koma-family/image/E38195E38289.png</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +1029,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1025,116 +1134,284 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="81">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -1162,6 +1439,60 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1460,11 +1791,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1472,29 +1801,29 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22">
+    <row r="1" spans="1:11" ht="22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="B4" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
         <v>102</v>
       </c>
@@ -1510,17 +1839,23 @@
       <c r="F5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,20 +1872,27 @@
         <f>D6&amp;".jpg"</f>
         <v>aiduhongo.jpg</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>"curl -o "&amp;F6&amp;" "&amp;G6</f>
+        <v>curl -o aiduhongo.jpg http://www.tohoku.meti.go.jp/s_cyusyo/densan-ver3/img/image_aizuhongouyaki.jpg</v>
+      </c>
+      <c r="I6" s="1" t="str">
         <f>"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D6&amp;"', name: '"&amp;B6&amp;"', image_url: '"&amp;F6&amp;"' },"</f>
         <v>{ tag_type: 'traditional', tag: 'aiduhongo', name: '会津本郷焼', image_url: 'aiduhongo.jpg' },</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="J6" s="1" t="str">
         <f>"{ search_word: '"&amp;E6&amp;"', tag: '"&amp;D6&amp;"' },"</f>
         <v>{ search_word: '会津本郷焼', tag: 'aiduhongo' },</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="K6" s="1" t="str">
         <f>"{ land_of_origin: '"&amp;C6&amp;"', tag: '"&amp;D6&amp;"' },"</f>
         <v>{ land_of_origin: '福島県', tag: 'aiduhongo' },</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1567,20 +1909,27 @@
         <f t="shared" ref="F7:F33" si="0">D7&amp;".jpg"</f>
         <v>oborisoma.jpg</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" ref="G7:G33" si="1">"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D7&amp;"', name: '"&amp;B7&amp;"', image_url: '"&amp;F7&amp;"' },"</f>
+      <c r="G7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ref="H7:H33" si="1">"curl -o "&amp;F7&amp;" "&amp;G7</f>
+        <v>curl -o oborisoma.jpg http://www.kfb.co.jp/ana/chihara/WindowsLiveWriter/b33bef04748f_FF90/yunomi.jpg</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" ref="I7:I33" si="2">"{ tag_type: '"&amp;$B$4&amp;"', tag: '"&amp;D7&amp;"', name: '"&amp;B7&amp;"', image_url: '"&amp;F7&amp;"' },"</f>
         <v>{ tag_type: 'traditional', tag: 'oborisoma', name: '大堀相馬焼', image_url: 'oborisoma.jpg' },</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H33" si="2">"{ search_word: '"&amp;E7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
+      <c r="J7" s="1" t="str">
+        <f t="shared" ref="J7:J33" si="3">"{ search_word: '"&amp;E7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
         <v>{ search_word: '大堀相馬焼', tag: 'oborisoma' },</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="K7" s="1" t="str">
         <f>"{ land_of_origin: '"&amp;C7&amp;"', tag: '"&amp;D7&amp;"' },"</f>
         <v>{ land_of_origin: '福島県', tag: 'oborisoma' },</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,20 +1946,27 @@
         <f t="shared" si="0"/>
         <v>akadu.jpg</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o akadu.jpg http://material.miyazaki-c.ed.jp/ipa/dentouteki_kougeihin/touziki_touhoku_tyuubu/akazuyaki/x-dak3.jpg</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'akadu', name: '赤津焼', image_url: 'akadu.jpg' },</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '赤津焼', tag: 'akadu' },</v>
       </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" ref="I8:I33" si="3">"{ land_of_origin: '"&amp;C8&amp;"', tag: '"&amp;D8&amp;"' },"</f>
+      <c r="K8" s="1" t="str">
+        <f t="shared" ref="K8:K33" si="4">"{ land_of_origin: '"&amp;C8&amp;"', tag: '"&amp;D8&amp;"' },"</f>
         <v>{ land_of_origin: '愛知県', tag: 'akadu' },</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1627,20 +1983,27 @@
         <f t="shared" si="0"/>
         <v>kasama.jpg</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o kasama.jpg http://www.souvenir-project.com/wp-content/uploads/2011/04/20110426_IMGP7710.jpg</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'kasama', name: '笠間焼', image_url: 'kasama.jpg' },</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '笠間焼', tag: 'kasama' },</v>
       </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '茨木県', tag: 'kasama' },</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1650,27 +2013,34 @@
       <c r="D10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>masiko.jpg</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o masiko.jpg http://www.wa-raku.com/shouhin/event/titi/c-5.jpg</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'masiko', name: '益子焼', image_url: 'masiko.jpg' },</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '益子焼', tag: 'masiko' },</v>
       </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '栃木県', tag: 'masiko' },</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1687,20 +2057,27 @@
         <f t="shared" si="0"/>
         <v>echizen.jpg</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o echizen.jpg http://image.mapple.net/ospot/photol/18/01/01/18010114_3252_1.jpg</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'echizen', name: '越前焼', image_url: 'echizen.jpg' },</v>
       </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '越前焼', tag: 'echizen' },</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '福井県', tag: 'echizen' },</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1717,20 +2094,27 @@
         <f t="shared" si="0"/>
         <v>kutani.jpg</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o kutani.jpg http://www.thecovernippon.jp/shop/ku/kutani_main.jpg</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'kutani', name: '九谷焼', image_url: 'kutani.jpg' },</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '九谷焼', tag: 'kutani' },</v>
       </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '石川県', tag: 'kutani' },</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1747,20 +2131,27 @@
         <f t="shared" si="0"/>
         <v>iga.jpg</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o iga.jpg http://iga-iroiro.jp/matiya/img/img_deco_02.jpg</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'iga', name: '伊賀焼', image_url: 'iga.jpg' },</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '伊賀焼', tag: 'iga' },</v>
       </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '三重県', tag: 'iga' },</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1777,20 +2168,27 @@
         <f t="shared" si="0"/>
         <v>setosometuke.jpg</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o setosometuke.jpg http://zeami.ci.sugiyama-u.ac.jp/~izuka/iizuka2001/seto/kabegami/MVC-027S.JPG</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'setosometuke', name: '瀬戸染付焼', image_url: 'setosometuke.jpg' },</v>
       </c>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '瀬戸染付焼', tag: 'setosometuke' },</v>
       </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '愛知県', tag: 'setosometuke' },</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1807,20 +2205,27 @@
         <f t="shared" si="0"/>
         <v>tokoname.jpg</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o tokoname.jpg http://mijp.shop28.makeshop.jp/shopimages/mijp/0250080000322.jpg</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'tokoname', name: '常滑焼', image_url: 'tokoname.jpg' },</v>
       </c>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '常滑焼', tag: 'tokoname' },</v>
       </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '愛知県', tag: 'tokoname' },</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1837,20 +2242,27 @@
         <f t="shared" si="0"/>
         <v>mino.jpg</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o mino.jpg http://www.thecovernippon.jp/shop/ec_img/353/104560_3_7_main.jpg</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'mino', name: '美濃焼', image_url: 'mino.jpg' },</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '美濃焼', tag: 'mino' },</v>
       </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '岐阜県', tag: 'mino' },</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1867,20 +2279,27 @@
         <f t="shared" si="0"/>
         <v>yokkaichibanko.jpg</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o yokkaichibanko.jpg http://www5.city.yokkaichi.mie.jp/secure/40203/59_1.jpg</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'yokkaichibanko', name: '四日市萬古焼', image_url: 'yokkaichibanko.jpg' },</v>
       </c>
-      <c r="H17" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '四日市萬古焼', tag: 'yokkaichibanko' },</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '三重県', tag: 'yokkaichibanko' },</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1897,20 +2316,27 @@
         <f t="shared" si="0"/>
         <v>izushi.jpg</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o izushi.jpg http://www.city.toyooka.lg.jp/www/contents/1117001086109/images/11174502970001117001086109_image2.JPG</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'izushi', name: '出石焼', image_url: 'izushi.jpg' },</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '出石焼', tag: 'izushi' },</v>
       </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '兵庫県', tag: 'izushi' },</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1927,20 +2353,27 @@
         <f t="shared" si="0"/>
         <v>kyo.jpg</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="G19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o kyo.jpg http://www.tachikichi.co.jp/spring/20090407/main.jpg</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'kyo', name: '京焼', image_url: 'kyo.jpg' },</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '京焼', tag: 'kyo' },</v>
       </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '京都府', tag: 'kyo' },</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:11">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1957,20 +2390,27 @@
         <f t="shared" si="0"/>
         <v>kiyomizu.jpg</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o kiyomizu.jpg http://img.shaddy.jp/shop/49980000/commodity/1007166.jpg</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'kiyomizu', name: '清水焼', image_url: 'kiyomizu.jpg' },</v>
       </c>
-      <c r="H20" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '清水焼', tag: 'kiyomizu' },</v>
       </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '京都府', tag: 'kiyomizu' },</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1980,27 +2420,34 @@
       <c r="D21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>shigara.jpg</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="G21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o shigara.jpg http://img.shaddy.jp/shop/49980000/commodity/0200226.jpg</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'shigara', name: '信楽焼', image_url: 'shigara.jpg' },</v>
       </c>
-      <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '信楽焼', tag: 'shigara' },</v>
       </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '滋賀県', tag: 'shigara' },</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:11">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2017,20 +2464,27 @@
         <f t="shared" si="0"/>
         <v>tanbatachikui.jpg</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="G22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o tanbatachikui.jpg http://tourism.sasayama.jp/feature0201-thumb-745x336-143.jpg</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'tanbatachikui', name: '丹波立杭焼', image_url: 'tanbatachikui.jpg' },</v>
       </c>
-      <c r="H22" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '丹波立杭焼', tag: 'tanbatachikui' },</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '兵庫県', tag: 'tanbatachikui' },</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2047,20 +2501,27 @@
         <f t="shared" si="0"/>
         <v>iwami.jpg</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="G23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o iwami.jpg http://www.pref.shimane.lg.jp/industry/syoko/sangyo/dentou_kougei/kougei/kougei_03.data/iwamiyaki.JPG</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'iwami', name: '石見焼', image_url: 'iwami.jpg' },</v>
       </c>
-      <c r="H23" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '石見焼', tag: 'iwami' },</v>
       </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '島根県', tag: 'iwami' },</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:11">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2077,20 +2538,27 @@
         <f t="shared" si="0"/>
         <v>bizen.jpg</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="G24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o bizen.jpg http://www.sanbonmatsu.co.jp/images/syouhin/bizenyaki_group.jpg</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'bizen', name: '備前焼', image_url: 'bizen.jpg' },</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '備前焼', tag: 'bizen' },</v>
       </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '岡山県', tag: 'bizen' },</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:11">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,20 +2575,27 @@
         <f t="shared" si="0"/>
         <v>tobe.jpg</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="G25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o tobe.jpg http://gigaplus.makeshop.jp/tobeyaki0424/b/soba/b-soba-karakusa-068.jpg</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'tobe', name: '砥部焼', image_url: 'tobe.jpg' },</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '砥部焼', tag: 'tobe' },</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '愛媛県', tag: 'tobe' },</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2137,20 +2612,27 @@
         <f t="shared" si="0"/>
         <v>agano.jpg</v>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="G26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o agano.jpg http://www.aganoyaki.com/CIMGselect1074.JPG</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'agano', name: '上野焼', image_url: 'agano.jpg' },</v>
       </c>
-      <c r="H26" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '上野焼', tag: 'agano' },</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '福岡県', tag: 'agano' },</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:11">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2167,20 +2649,27 @@
         <f t="shared" si="0"/>
         <v>arita.jpg</v>
       </c>
-      <c r="G27" s="1" t="str">
+      <c r="G27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o arita.jpg http://shopping.c.yimg.jp/lib/motoki/a-184-1.jpg</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'arita', name: '有田焼', image_url: 'arita.jpg' },</v>
       </c>
-      <c r="H27" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '有田焼', tag: 'arita' },</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '佐賀県', tag: 'arita' },</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:11">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2197,20 +2686,27 @@
         <f t="shared" si="0"/>
         <v>imari.jpg</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o imari.jpg http://www.art-index.net/art_exhibitions/20091222toguri02.jpg</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'imari', name: '伊万里焼', image_url: 'imari.jpg' },</v>
       </c>
-      <c r="H28" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '伊万里焼', tag: 'imari' },</v>
       </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '佐賀県', tag: 'imari' },</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:11">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2227,20 +2723,27 @@
         <f t="shared" si="0"/>
         <v>karatuyaki.jpg</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o karatuyaki.jpg http://www.aiten.co.jp/item_photo/081915401l.jpg</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'karatuyaki', name: '唐津焼', image_url: 'karatuyaki.jpg' },</v>
       </c>
-      <c r="H29" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '唐津焼', tag: 'karatuyaki' },</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '佐賀県', tag: 'karatuyaki' },</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:11">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2257,20 +2760,27 @@
         <f t="shared" si="0"/>
         <v>koishiwara.jpg</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o koishiwara.jpg http://nachicco.img.jugem.jp/20110715_1372911.jpg</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'koishiwara', name: '小石原焼', image_url: 'koishiwara.jpg' },</v>
       </c>
-      <c r="H30" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '小石原焼', tag: 'koishiwara' },</v>
       </c>
-      <c r="I30" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '福岡県', tag: 'koishiwara' },</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:11">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2280,27 +2790,34 @@
       <c r="D31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>tuboya.jpg</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o tuboya.jpg http://4koma-family.up.n.seesaa.net/4koma-family/image/E38195E38289.png</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'tuboya', name: '壺屋焼', image_url: 'tuboya.jpg' },</v>
       </c>
-      <c r="H31" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '壺屋焼', tag: 'tuboya' },</v>
       </c>
-      <c r="I31" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '沖縄県', tag: 'tuboya' },</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:11">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2317,20 +2834,27 @@
         <f t="shared" si="0"/>
         <v>hasami.jpg</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o hasami.jpg http://yaplog.jp/cv/komawari/img/375/10130954220_p.jpg</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'hasami', name: '波佐見焼', image_url: 'hasami.jpg' },</v>
       </c>
-      <c r="H32" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '波佐見焼', tag: 'hasami' },</v>
       </c>
-      <c r="I32" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '長崎県', tag: 'hasami' },</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:11">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2347,23 +2871,41 @@
         <f t="shared" si="0"/>
         <v>mikawachi.jpg</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>curl -o mikawachi.jpg http://material.miyazaki-c.ed.jp/ipa/dentouteki_kougeihin/touziki_kyuusyuu/mikawatiyaki/x-dmw2.jpg</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>{ tag_type: 'traditional', tag: 'mikawachi', name: '三川内焼', image_url: 'mikawachi.jpg' },</v>
       </c>
-      <c r="H33" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>{ search_word: '三川内焼', tag: 'mikawachi' },</v>
       </c>
-      <c r="I33" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="4"/>
         <v>{ land_of_origin: '長崎県', tag: 'mikawachi' },</v>
       </c>
     </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="G31" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2586,7 +3128,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
